--- a/tp6-csp/code/forward.xlsx
+++ b/tp6-csp/code/forward.xlsx
@@ -514,7 +514,7 @@
         <v>102</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.0009975433349609375</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>261</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0009973049163818359</v>
+        <v>0.0009968280792236328</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>1359</v>
       </c>
       <c r="E6" t="n">
-        <v>0.005983114242553711</v>
+        <v>0.005983829498291016</v>
       </c>
     </row>
   </sheetData>
